--- a/data/hotels_by_city/Houston/Houston_shard_551.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_551.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56780-d12125303-Reviews-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Residence-Inn-Houston-Tomball.h16525774.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,242 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r559922270-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>56780</t>
+  </si>
+  <si>
+    <t>12125303</t>
+  </si>
+  <si>
+    <t>559922270</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Fire Alarm Disappointment!</t>
+  </si>
+  <si>
+    <t>We came into Tomball for a Chamber of Commerce evening event.  We arrived at 3:30 pm only to find we could not check into our room because of a fire alarm...elevators were shut down.  The management was waiting on the Tomball fire department to respond.  We had to be dressed and out the door by 6:00pm to get to our event.  Our rooms were on the 3rd floor and was told there was nothing available lower.  We could go to our rooms, but could not use the elevator - really?  Carrying 4 pieces of luggage up 3 flights of stairs??  Seriously!!  No one to help!!!  We decided to meet some friends for drinks while the fire department responded.  After several hours, nothing!  At 6:00, we demanded either they carry our luggage up the stairs or give up a room downstairs so we can dress, they FINALLY gave us a room on first floor.  We quickly went to the room to dress for the event, only to find someone had partially used the bed and the bathroom (did not flush the toilet!!).  I called the front desk and they immediately sent someone in to check the room.  We had NO CHOICE but to quickly dress and leave.  They promised the room would be in mint condition when we returned!  OKAY, I understand the situation they were in - at the mercy of the fire department inspector on a Friday night.  BUT,...We came into Tomball for a Chamber of Commerce evening event.  We arrived at 3:30 pm only to find we could not check into our room because of a fire alarm...elevators were shut down.  The management was waiting on the Tomball fire department to respond.  We had to be dressed and out the door by 6:00pm to get to our event.  Our rooms were on the 3rd floor and was told there was nothing available lower.  We could go to our rooms, but could not use the elevator - really?  Carrying 4 pieces of luggage up 3 flights of stairs??  Seriously!!  No one to help!!!  We decided to meet some friends for drinks while the fire department responded.  After several hours, nothing!  At 6:00, we demanded either they carry our luggage up the stairs or give up a room downstairs so we can dress, they FINALLY gave us a room on first floor.  We quickly went to the room to dress for the event, only to find someone had partially used the bed and the bathroom (did not flush the toilet!!).  I called the front desk and they immediately sent someone in to check the room.  We had NO CHOICE but to quickly dress and leave.  They promised the room would be in mint condition when we returned!  OKAY, I understand the situation they were in - at the mercy of the fire department inspector on a Friday night.  BUT, when asked how we were going to be compensated for our inconvenience, we were told everyone had the same problem.  We only received a typed written letter (copied for all the rooms) and a coupon for 1 item in their 'market' area.  Big deal!  I felt we should have had our room comped or discounted at least by 50%.  Sorry Marriott...there are no excuses!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Melanie S, General Manager at Residence Inn Houston Tomball, responded to this reviewResponded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2018</t>
+  </si>
+  <si>
+    <t>We came into Tomball for a Chamber of Commerce evening event.  We arrived at 3:30 pm only to find we could not check into our room because of a fire alarm...elevators were shut down.  The management was waiting on the Tomball fire department to respond.  We had to be dressed and out the door by 6:00pm to get to our event.  Our rooms were on the 3rd floor and was told there was nothing available lower.  We could go to our rooms, but could not use the elevator - really?  Carrying 4 pieces of luggage up 3 flights of stairs??  Seriously!!  No one to help!!!  We decided to meet some friends for drinks while the fire department responded.  After several hours, nothing!  At 6:00, we demanded either they carry our luggage up the stairs or give up a room downstairs so we can dress, they FINALLY gave us a room on first floor.  We quickly went to the room to dress for the event, only to find someone had partially used the bed and the bathroom (did not flush the toilet!!).  I called the front desk and they immediately sent someone in to check the room.  We had NO CHOICE but to quickly dress and leave.  They promised the room would be in mint condition when we returned!  OKAY, I understand the situation they were in - at the mercy of the fire department inspector on a Friday night.  BUT,...We came into Tomball for a Chamber of Commerce evening event.  We arrived at 3:30 pm only to find we could not check into our room because of a fire alarm...elevators were shut down.  The management was waiting on the Tomball fire department to respond.  We had to be dressed and out the door by 6:00pm to get to our event.  Our rooms were on the 3rd floor and was told there was nothing available lower.  We could go to our rooms, but could not use the elevator - really?  Carrying 4 pieces of luggage up 3 flights of stairs??  Seriously!!  No one to help!!!  We decided to meet some friends for drinks while the fire department responded.  After several hours, nothing!  At 6:00, we demanded either they carry our luggage up the stairs or give up a room downstairs so we can dress, they FINALLY gave us a room on first floor.  We quickly went to the room to dress for the event, only to find someone had partially used the bed and the bathroom (did not flush the toilet!!).  I called the front desk and they immediately sent someone in to check the room.  We had NO CHOICE but to quickly dress and leave.  They promised the room would be in mint condition when we returned!  OKAY, I understand the situation they were in - at the mercy of the fire department inspector on a Friday night.  BUT, when asked how we were going to be compensated for our inconvenience, we were told everyone had the same problem.  We only received a typed written letter (copied for all the rooms) and a coupon for 1 item in their 'market' area.  Big deal!  I felt we should have had our room comped or discounted at least by 50%.  Sorry Marriott...there are no excuses!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r559073575-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>559073575</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>Wedding trip</t>
+  </si>
+  <si>
+    <t>We came to town for a wedding and stayed in this nice new property. They were able to get us into our room a little early so we could shower after the drive and the room was very nice. It had kitchen, living room and bedroom area. This is a very well designed property!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Melanie S, General Manager at Residence Inn Houston Tomball, responded to this reviewResponded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2018</t>
+  </si>
+  <si>
+    <t>We came to town for a wedding and stayed in this nice new property. They were able to get us into our room a little early so we could shower after the drive and the room was very nice. It had kitchen, living room and bedroom area. This is a very well designed property!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r558824600-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>558824600</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Just a quick overnight stay</t>
+  </si>
+  <si>
+    <t>We were in town and needed a place to stay last minute, I was able to book a room on the mobile app and they were ready for once once we arrived. We didn't get in until after 10pm but were still welcomed with smiles, a nice clean room and comfortable bed. Breakfast in the morning was what i would expect from a Residence Inn.  The property appeared to be rather new and i wouldn't hesitate to stay there again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in town and needed a place to stay last minute, I was able to book a room on the mobile app and they were ready for once once we arrived. We didn't get in until after 10pm but were still welcomed with smiles, a nice clean room and comfortable bed. Breakfast in the morning was what i would expect from a Residence Inn.  The property appeared to be rather new and i wouldn't hesitate to stay there again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r545591977-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>545591977</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Great, Great Hotel...Did I Mention Great!!!</t>
+  </si>
+  <si>
+    <t>My husband was working Hirticane Harvey and he chose Reaidence Inn due to we are members of the Rewards Program and the fact that the hotel allows pets! I came to visit him for about 6 weeks and love this hotel!!!
+The first morning I went down to breakfast, (which has a lot to offer and is delicious)I was met by the very charming Camryn who asked me if I needed anything and also who I was! I introduced myself and said my husband is staying here. She immediately knew who he was and stated that all of the staff loved him! I’ll have to say I was impressed!!
+When I was through eating she offered to show me around so I could get my bearings of the hotel which we did! She was such a pleasure to be around! 
+As the days progressed, I had the pleasure of meeting  Melanie, the Day Manager, (who is amazing!!!), Will, Reggie and the Fabulous Ms T!!! All of these people were kind, extremely friendly, very professional and helpful to whatever I needed!! They truly cared for me to have an awesome stay!!!
+Our room consisted of a full kitchen with whatever you needed if you chose to cook along with pantry place for groceries! We had a nice, spacious living room with a nice sized TV screen and there was another one in the bedroom. The bed was very comfortable and a...My husband was working Hirticane Harvey and he chose Reaidence Inn due to we are members of the Rewards Program and the fact that the hotel allows pets! I came to visit him for about 6 weeks and love this hotel!!!The first morning I went down to breakfast, (which has a lot to offer and is delicious)I was met by the very charming Camryn who asked me if I needed anything and also who I was! I introduced myself and said my husband is staying here. She immediately knew who he was and stated that all of the staff loved him! I’ll have to say I was impressed!!When I was through eating she offered to show me around so I could get my bearings of the hotel which we did! She was such a pleasure to be around! As the days progressed, I had the pleasure of meeting  Melanie, the Day Manager, (who is amazing!!!), Will, Reggie and the Fabulous Ms T!!! All of these people were kind, extremely friendly, very professional and helpful to whatever I needed!! They truly cared for me to have an awesome stay!!!Our room consisted of a full kitchen with whatever you needed if you chose to cook along with pantry place for groceries! We had a nice, spacious living room with a nice sized TV screen and there was another one in the bedroom. The bed was very comfortable and a pretty spacious room along with a spacious bathroom!!! I have severe back problems and sleeping in the bed actually helped me!!!The outside offers a great swimming pool area along with a waterfall type thing for the kids. It also has a putting range and lots of area to walk your dogs! The hotel provides the dog bags needed and a place to dispose of them properly.  There are 2 outdoor grills with plenty of tables, chars and sofs’s around the firepit which is lit on cool nights! The hotel offers a party with free food and drink for all hotel members on Monday evenings and sometimes through Wednesday! It’s a great way to meet other guests! They serve various foods and it’s different all the time! It’s definitely a great way to meet the other guests and actually got rather close with several people who are now my friends! I highly recommend this hotel whether it’s for business or pleasure! It was such an amazing time staying here that I didn’t want to go home!!!I also want to mention that after my husband packed up and came home, he received a package with some stuff he had accidentally left in the drawers from our room. This has happened before at another hotel, (not a Residence Inn), and when we called that same day in the evening time they said nothing was left which was a lie! This Hotel mailed us what was left and that goes very far with me when picking a hotel in the future! I can promise whoever is reading this and you chose to stay here, you will not be disappointed!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>My husband was working Hirticane Harvey and he chose Reaidence Inn due to we are members of the Rewards Program and the fact that the hotel allows pets! I came to visit him for about 6 weeks and love this hotel!!!
+The first morning I went down to breakfast, (which has a lot to offer and is delicious)I was met by the very charming Camryn who asked me if I needed anything and also who I was! I introduced myself and said my husband is staying here. She immediately knew who he was and stated that all of the staff loved him! I’ll have to say I was impressed!!
+When I was through eating she offered to show me around so I could get my bearings of the hotel which we did! She was such a pleasure to be around! 
+As the days progressed, I had the pleasure of meeting  Melanie, the Day Manager, (who is amazing!!!), Will, Reggie and the Fabulous Ms T!!! All of these people were kind, extremely friendly, very professional and helpful to whatever I needed!! They truly cared for me to have an awesome stay!!!
+Our room consisted of a full kitchen with whatever you needed if you chose to cook along with pantry place for groceries! We had a nice, spacious living room with a nice sized TV screen and there was another one in the bedroom. The bed was very comfortable and a...My husband was working Hirticane Harvey and he chose Reaidence Inn due to we are members of the Rewards Program and the fact that the hotel allows pets! I came to visit him for about 6 weeks and love this hotel!!!The first morning I went down to breakfast, (which has a lot to offer and is delicious)I was met by the very charming Camryn who asked me if I needed anything and also who I was! I introduced myself and said my husband is staying here. She immediately knew who he was and stated that all of the staff loved him! I’ll have to say I was impressed!!When I was through eating she offered to show me around so I could get my bearings of the hotel which we did! She was such a pleasure to be around! As the days progressed, I had the pleasure of meeting  Melanie, the Day Manager, (who is amazing!!!), Will, Reggie and the Fabulous Ms T!!! All of these people were kind, extremely friendly, very professional and helpful to whatever I needed!! They truly cared for me to have an awesome stay!!!Our room consisted of a full kitchen with whatever you needed if you chose to cook along with pantry place for groceries! We had a nice, spacious living room with a nice sized TV screen and there was another one in the bedroom. The bed was very comfortable and a pretty spacious room along with a spacious bathroom!!! I have severe back problems and sleeping in the bed actually helped me!!!The outside offers a great swimming pool area along with a waterfall type thing for the kids. It also has a putting range and lots of area to walk your dogs! The hotel provides the dog bags needed and a place to dispose of them properly.  There are 2 outdoor grills with plenty of tables, chars and sofs’s around the firepit which is lit on cool nights! The hotel offers a party with free food and drink for all hotel members on Monday evenings and sometimes through Wednesday! It’s a great way to meet other guests! They serve various foods and it’s different all the time! It’s definitely a great way to meet the other guests and actually got rather close with several people who are now my friends! I highly recommend this hotel whether it’s for business or pleasure! It was such an amazing time staying here that I didn’t want to go home!!!I also want to mention that after my husband packed up and came home, he received a package with some stuff he had accidentally left in the drawers from our room. This has happened before at another hotel, (not a Residence Inn), and when we called that same day in the evening time they said nothing was left which was a lie! This Hotel mailed us what was left and that goes very far with me when picking a hotel in the future! I can promise whoever is reading this and you chose to stay here, you will not be disappointed!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r506524594-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>506524594</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spotless </t>
+  </si>
+  <si>
+    <t>Thing that this hotel was clean is an understatement. The staff was efficient and kind and the rooms were designed so well you could tell there was lots of thought behind every detail. I usually take my own sheets with me to most hotels even nice ones but I did not have to do that here as everything was really clean. If I have any business anywhere close to that area again I will go out of my way to stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Thing that this hotel was clean is an understatement. The staff was efficient and kind and the rooms were designed so well you could tell there was lots of thought behind every detail. I usually take my own sheets with me to most hotels even nice ones but I did not have to do that here as everything was really clean. If I have any business anywhere close to that area again I will go out of my way to stay here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r498322120-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>498322120</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>New hotel.  Very modern and very nice.</t>
+  </si>
+  <si>
+    <t>Comfortable bed, friendly staff, great breakfast and great outdoor space.   This is a wonderful hotel to stay in when in the Tomball area.  Everything is brand new (hotel opened March 2017).   Bathrooms are large and modern.  Kitchenettes are very functional.  Great place all the way around.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Comfortable bed, friendly staff, great breakfast and great outdoor space.   This is a wonderful hotel to stay in when in the Tomball area.  Everything is brand new (hotel opened March 2017).   Bathrooms are large and modern.  Kitchenettes are very functional.  Great place all the way around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r467346488-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>467346488</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Beautiful brand new hotel with excellent service</t>
+  </si>
+  <si>
+    <t>This past weekend my wife and I enjoyed a wonderful couple of nights here. We booked the property because we are Marriott Elite Members and love the brand. We also had a wedding nearby in Magnolia.I am pleased to say we were very impressed with the entire experience. Reggie was extremely professional, welcoming and clearly understands hospitality. After working in hotels for 10 years myself I really appreciated his attention to detail and demeanor. Our check in with him was pleasant, he gave great directions and was always smiling. Thank you Reggie. The room was incredible. We loved the fact that it was brand new and therefor extremely clean. It was quite spacious with a full kitchenette area and living room. The TV was large and conveniently had Netflix on it which was perfect. Loved the fact that there was complimentary popcorn and lots of coffee in the room. Also breakfast was amazing and complimentary. Great selection and very friendly team members. Thank you for making our weekend such a memorable one!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>This past weekend my wife and I enjoyed a wonderful couple of nights here. We booked the property because we are Marriott Elite Members and love the brand. We also had a wedding nearby in Magnolia.I am pleased to say we were very impressed with the entire experience. Reggie was extremely professional, welcoming and clearly understands hospitality. After working in hotels for 10 years myself I really appreciated his attention to detail and demeanor. Our check in with him was pleasant, he gave great directions and was always smiling. Thank you Reggie. The room was incredible. We loved the fact that it was brand new and therefor extremely clean. It was quite spacious with a full kitchenette area and living room. The TV was large and conveniently had Netflix on it which was perfect. Loved the fact that there was complimentary popcorn and lots of coffee in the room. Also breakfast was amazing and complimentary. Great selection and very friendly team members. Thank you for making our weekend such a memorable one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r466993070-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>466993070</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Perfect hotel experience</t>
+  </si>
+  <si>
+    <t>Hotel is beautiful, clean and modern with friendly,helpful staff.   Rooms are spacious with every amenity including kitchen, living area, large rotating flat screen TV, comfy bed and beautiful bath area.  Complimentary breakfast had a variety of great choices.  We'll be back. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is beautiful, clean and modern with friendly,helpful staff.   Rooms are spacious with every amenity including kitchen, living area, large rotating flat screen TV, comfy bed and beautiful bath area.  Complimentary breakfast had a variety of great choices.  We'll be back. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r465681137-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>465681137</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kudos to Reggie for going the extra mile </t>
+  </si>
+  <si>
+    <t>Brand new, clean, what a lovely place to stay.  When I had problems , of my own making, at registration, Reggie made everything right. Professional, yet friendly.  The room is fabulous, and everything I need is here.  I'll definitely make Residence Inn my first choice in future. MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand new, clean, what a lovely place to stay.  When I had problems , of my own making, at registration, Reggie made everything right. Professional, yet friendly.  The room is fabulous, and everything I need is here.  I'll definitely make Residence Inn my first choice in future. More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +774,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +806,652 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_551.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_551.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r575693316-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>56780</t>
+  </si>
+  <si>
+    <t>12125303</t>
+  </si>
+  <si>
+    <t>575693316</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Awesome Staff</t>
+  </si>
+  <si>
+    <t>Our stay was 12 weeks, being the final end to our transition after hurricane Harvey destroyed our home.  We wish Residence Inn would of been available for the first 6 months of our ordeal.  This Hotel rates way above the other hotels we had to stay in.  Melanie, the General Manager, has an Awesome staff who she leads by example.  It was a rarity if an employee didn't stop what they were doing to greet us with a smile, as well as doing what they could to help us feel at home.  ... We were there for the February Fire Alarm Malfunction.  Ebony handled this unexpected problem like a pro; constantly calling to get the service company there asap, keeping the guest gathered in the lobby informed, and even putting out snacks for the guest.  She couldn't of done anything else to resolve this issue that was out of her hands.  ... We sincerely appreciate all Melanie and her staff did for us to make our stay comfortable and enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Melanie S, General Manager at Residence Inn Houston Tomball, responded to this reviewResponded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Our stay was 12 weeks, being the final end to our transition after hurricane Harvey destroyed our home.  We wish Residence Inn would of been available for the first 6 months of our ordeal.  This Hotel rates way above the other hotels we had to stay in.  Melanie, the General Manager, has an Awesome staff who she leads by example.  It was a rarity if an employee didn't stop what they were doing to greet us with a smile, as well as doing what they could to help us feel at home.  ... We were there for the February Fire Alarm Malfunction.  Ebony handled this unexpected problem like a pro; constantly calling to get the service company there asap, keeping the guest gathered in the lobby informed, and even putting out snacks for the guest.  She couldn't of done anything else to resolve this issue that was out of her hands.  ... We sincerely appreciate all Melanie and her staff did for us to make our stay comfortable and enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r568766245-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>568766245</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Tomball German Fest</t>
+  </si>
+  <si>
+    <t>We stayed here during our visit to Tomball German Fest. Very nice, clean and quiet. Room nice, clean, with lots of room. Beds very comfortable and we slept well. Highly recommend this hotel. We will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Melanie S, General Manager at Residence Inn Houston Tomball, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here during our visit to Tomball German Fest. Very nice, clean and quiet. Room nice, clean, with lots of room. Beds very comfortable and we slept well. Highly recommend this hotel. We will stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r559922270-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
-    <t>56780</t>
-  </si>
-  <si>
-    <t>12125303</t>
-  </si>
-  <si>
     <t>559922270</t>
   </si>
   <si>
@@ -171,9 +228,6 @@
     <t>We came into Tomball for a Chamber of Commerce evening event.  We arrived at 3:30 pm only to find we could not check into our room because of a fire alarm...elevators were shut down.  The management was waiting on the Tomball fire department to respond.  We had to be dressed and out the door by 6:00pm to get to our event.  Our rooms were on the 3rd floor and was told there was nothing available lower.  We could go to our rooms, but could not use the elevator - really?  Carrying 4 pieces of luggage up 3 flights of stairs??  Seriously!!  No one to help!!!  We decided to meet some friends for drinks while the fire department responded.  After several hours, nothing!  At 6:00, we demanded either they carry our luggage up the stairs or give up a room downstairs so we can dress, they FINALLY gave us a room on first floor.  We quickly went to the room to dress for the event, only to find someone had partially used the bed and the bathroom (did not flush the toilet!!).  I called the front desk and they immediately sent someone in to check the room.  We had NO CHOICE but to quickly dress and leave.  They promised the room would be in mint condition when we returned!  OKAY, I understand the situation they were in - at the mercy of the fire department inspector on a Friday night.  BUT,...We came into Tomball for a Chamber of Commerce evening event.  We arrived at 3:30 pm only to find we could not check into our room because of a fire alarm...elevators were shut down.  The management was waiting on the Tomball fire department to respond.  We had to be dressed and out the door by 6:00pm to get to our event.  Our rooms were on the 3rd floor and was told there was nothing available lower.  We could go to our rooms, but could not use the elevator - really?  Carrying 4 pieces of luggage up 3 flights of stairs??  Seriously!!  No one to help!!!  We decided to meet some friends for drinks while the fire department responded.  After several hours, nothing!  At 6:00, we demanded either they carry our luggage up the stairs or give up a room downstairs so we can dress, they FINALLY gave us a room on first floor.  We quickly went to the room to dress for the event, only to find someone had partially used the bed and the bathroom (did not flush the toilet!!).  I called the front desk and they immediately sent someone in to check the room.  We had NO CHOICE but to quickly dress and leave.  They promised the room would be in mint condition when we returned!  OKAY, I understand the situation they were in - at the mercy of the fire department inspector on a Friday night.  BUT, when asked how we were going to be compensated for our inconvenience, we were told everyone had the same problem.  We only received a typed written letter (copied for all the rooms) and a coupon for 1 item in their 'market' area.  Big deal!  I felt we should have had our room comped or discounted at least by 50%.  Sorry Marriott...there are no excuses!!!MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -232,6 +286,58 @@
   </si>
   <si>
     <t>We were in town and needed a place to stay last minute, I was able to book a room on the mobile app and they were ready for once once we arrived. We didn't get in until after 10pm but were still welcomed with smiles, a nice clean room and comfortable bed. Breakfast in the morning was what i would expect from a Residence Inn.  The property appeared to be rather new and i wouldn't hesitate to stay there again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r555262672-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>555262672</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Lodging Option in Tomball </t>
+  </si>
+  <si>
+    <t>What a great new lodging option in Tomball. You’ll find everything you need from friendly staff to spacious suites in this new Marriott property. I loved the 24 hour coffee availability and plenty of close up parking.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Melanie S, General Manager at Residence Inn Houston Tomball, responded to this reviewResponded February 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2018</t>
+  </si>
+  <si>
+    <t>What a great new lodging option in Tomball. You’ll find everything you need from friendly staff to spacious suites in this new Marriott property. I loved the 24 hour coffee availability and plenty of close up parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r545823596-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>545823596</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>Great hotel in Tomball with just a few minor concerns</t>
+  </si>
+  <si>
+    <t>Stayed here Thanksgiving week while visiting family in Magnolia, not far away.  Nice new hotel easy to find and close by lots of shopping and restaurants in Tomball.  Room was very spacious and comfortable.  Breakfast options were good.  Easy parking.  Only 2 minor concerns.  
+1. Housekeeping in my suite was not good.  There were tons of long hairs on the bathroom floor which made me think the housekeeper didn't clean up well from the previous guest.  Oddly enough, when I mentioned this to the front desk they asked if the hair was a specific size and color (I won't mention).  I found this very odd because they were exactly right.   Did they know what the previous guests looked like?  Or is there a problem with that kind of hair showing up in the hotel.  Very strange.  Because this was Thanksgiving week I'll assume they were short on housekeeping staff and hope this was an isolated incident. 
+2. We left a watch in the room and called from the airport to see if they could mail it to us.  The person on the phone did say he would mail it express and got our credit card number.  But I was surprised to see that I was charged $117 from Fedex.  He shipped it early morning delivery overnight.  I feel bad even mentioning this because he did help me out by getting the watch back to me quickly.  But I wish they...Stayed here Thanksgiving week while visiting family in Magnolia, not far away.  Nice new hotel easy to find and close by lots of shopping and restaurants in Tomball.  Room was very spacious and comfortable.  Breakfast options were good.  Easy parking.  Only 2 minor concerns.  1. Housekeeping in my suite was not good.  There were tons of long hairs on the bathroom floor which made me think the housekeeper didn't clean up well from the previous guest.  Oddly enough, when I mentioned this to the front desk they asked if the hair was a specific size and color (I won't mention).  I found this very odd because they were exactly right.   Did they know what the previous guests looked like?  Or is there a problem with that kind of hair showing up in the hotel.  Very strange.  Because this was Thanksgiving week I'll assume they were short on housekeeping staff and hope this was an isolated incident. 2. We left a watch in the room and called from the airport to see if they could mail it to us.  The person on the phone did say he would mail it express and got our credit card number.  But I was surprised to see that I was charged $117 from Fedex.  He shipped it early morning delivery overnight.  I feel bad even mentioning this because he did help me out by getting the watch back to me quickly.  But I wish they would have selected a less expensive shipping option.  Even more odd was that I called him when I checked out on Friday and did not get the watch until Wednesday.  So they shipped it overnight but kept it for a few days.  Odd.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Stayed here Thanksgiving week while visiting family in Magnolia, not far away.  Nice new hotel easy to find and close by lots of shopping and restaurants in Tomball.  Room was very spacious and comfortable.  Breakfast options were good.  Easy parking.  Only 2 minor concerns.  
+1. Housekeeping in my suite was not good.  There were tons of long hairs on the bathroom floor which made me think the housekeeper didn't clean up well from the previous guest.  Oddly enough, when I mentioned this to the front desk they asked if the hair was a specific size and color (I won't mention).  I found this very odd because they were exactly right.   Did they know what the previous guests looked like?  Or is there a problem with that kind of hair showing up in the hotel.  Very strange.  Because this was Thanksgiving week I'll assume they were short on housekeeping staff and hope this was an isolated incident. 
+2. We left a watch in the room and called from the airport to see if they could mail it to us.  The person on the phone did say he would mail it express and got our credit card number.  But I was surprised to see that I was charged $117 from Fedex.  He shipped it early morning delivery overnight.  I feel bad even mentioning this because he did help me out by getting the watch back to me quickly.  But I wish they...Stayed here Thanksgiving week while visiting family in Magnolia, not far away.  Nice new hotel easy to find and close by lots of shopping and restaurants in Tomball.  Room was very spacious and comfortable.  Breakfast options were good.  Easy parking.  Only 2 minor concerns.  1. Housekeeping in my suite was not good.  There were tons of long hairs on the bathroom floor which made me think the housekeeper didn't clean up well from the previous guest.  Oddly enough, when I mentioned this to the front desk they asked if the hair was a specific size and color (I won't mention).  I found this very odd because they were exactly right.   Did they know what the previous guests looked like?  Or is there a problem with that kind of hair showing up in the hotel.  Very strange.  Because this was Thanksgiving week I'll assume they were short on housekeeping staff and hope this was an isolated incident. 2. We left a watch in the room and called from the airport to see if they could mail it to us.  The person on the phone did say he would mail it express and got our credit card number.  But I was surprised to see that I was charged $117 from Fedex.  He shipped it early morning delivery overnight.  I feel bad even mentioning this because he did help me out by getting the watch back to me quickly.  But I wish they would have selected a less expensive shipping option.  Even more odd was that I called him when I checked out on Friday and did not get the watch until Wednesday.  So they shipped it overnight but kept it for a few days.  Odd.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r545591977-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
@@ -308,9 +414,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Management response:Responded July 6, 2017</t>
   </si>
   <si>
@@ -320,6 +423,60 @@
     <t>Comfortable bed, friendly staff, great breakfast and great outdoor space.   This is a wonderful hotel to stay in when in the Tomball area.  Everything is brand new (hotel opened March 2017).   Bathrooms are large and modern.  Kitchenettes are very functional.  Great place all the way around.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r489115988-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>489115988</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel!!!!</t>
+  </si>
+  <si>
+    <t>Clean. Convenient. Large and modern rooms.  Entire staff was friendly and guest focused. Karen was especially kind and welcoming upon our arrival!!! We had 3 reservations and several times had to make modifications due to a change in our baseball schedule, They could not have nicer about helping us figuring everything out. One particular change was confusing but Susan made it work. We will be back!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Clean. Convenient. Large and modern rooms.  Entire staff was friendly and guest focused. Karen was especially kind and welcoming upon our arrival!!! We had 3 reservations and several times had to make modifications due to a change in our baseball schedule, They could not have nicer about helping us figuring everything out. One particular change was confusing but Susan made it work. We will be back!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r488847825-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>488847825</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Amazing new hotel with superior service</t>
+  </si>
+  <si>
+    <t>Just spent Memorial Day Weekend here as we were in town for a soccer tournament. It's the perfect property for a larger group and especially one with kids. To say the staff was fantastic would be an understatement. They handled every special request with a smile and went out of their way to accommodate everyone. There were multiple youth teams staying at the hotel which could have made the staff a little harried, but never once did they seem frazzled or annoyed. Instead they asked how they could help and cleaned up after everyone. In addition to the service being second to none, the rooms were fantastic. Clean, new and big. The buffet breakfast in the morning was also plentiful. Hopefully we have future tournaments in this area as I will definitely book this hotel for our group again! They even provided a super cute thank you gift upon check out. Thank you Residence Inn Tomball for a phenomenal stay!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Just spent Memorial Day Weekend here as we were in town for a soccer tournament. It's the perfect property for a larger group and especially one with kids. To say the staff was fantastic would be an understatement. They handled every special request with a smile and went out of their way to accommodate everyone. There were multiple youth teams staying at the hotel which could have made the staff a little harried, but never once did they seem frazzled or annoyed. Instead they asked how they could help and cleaned up after everyone. In addition to the service being second to none, the rooms were fantastic. Clean, new and big. The buffet breakfast in the morning was also plentiful. Hopefully we have future tournaments in this area as I will definitely book this hotel for our group again! They even provided a super cute thank you gift upon check out. Thank you Residence Inn Tomball for a phenomenal stay!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d12125303-r467346488-Residence_Inn_Houston_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -336,12 +493,6 @@
   </si>
   <si>
     <t>March 2017</t>
-  </si>
-  <si>
-    <t>Management response:Responded May 30, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 30, 2017</t>
   </si>
   <si>
     <t>This past weekend my wife and I enjoyed a wonderful couple of nights here. We booked the property because we are Marriott Elite Members and love the brand. We also had a wedding nearby in Magnolia.I am pleased to say we were very impressed with the entire experience. Reggie was extremely professional, welcoming and clearly understands hospitality. After working in hotels for 10 years myself I really appreciated his attention to detail and demeanor. Our check in with him was pleasant, he gave great directions and was always smiling. Thank you Reggie. The room was incredible. We loved the fact that it was brand new and therefor extremely clean. It was quite spacious with a full kitchenette area and living room. The TV was large and conveniently had Netflix on it which was perfect. Loved the fact that there was complimentary popcorn and lots of coffee in the room. Also breakfast was amazing and complimentary. Great selection and very friendly team members. Thank you for making our weekend such a memorable one!More</t>
@@ -915,7 +1066,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -924,16 +1075,14 @@
         <v>52</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -988,7 +1137,7 @@
         <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1000,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
         <v>63</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1022,7 +1171,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1031,49 +1180,49 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
         <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1089,7 +1238,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1098,25 +1247,25 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1127,10 +1276,14 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1146,7 +1299,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1155,43 +1308,49 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
         <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" t="s">
-        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -1207,7 +1366,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1216,49 +1375,43 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -1274,7 +1427,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1283,47 +1436,43 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>104</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
         <v>105</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -1339,7 +1488,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1348,47 +1497,37 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
         <v>108</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>109</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>110</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>111</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>103</v>
-      </c>
       <c r="O9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>104</v>
-      </c>
-      <c r="X9" t="s">
-        <v>105</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
         <v>112</v>
       </c>
@@ -1430,10 +1569,10 @@
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1445,13 +1584,391 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>136</v>
+      </c>
+      <c r="X12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>146</v>
+      </c>
+      <c r="X14" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>146</v>
+      </c>
+      <c r="X15" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>146</v>
+      </c>
+      <c r="X16" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
